--- a/biology/Biochimie/Oxydant/Oxydant.xlsx
+++ b/biology/Biochimie/Oxydant/Oxydant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un oxydant ou agent oxydant ou agent d'oxydation est un corps simple, un composé ou un ion qui reçoit au moins un électron d'une autre espèce chimique lors d'une réaction d'oxydoréduction[1]. L'oxydant ayant accepté au moins un électron au cours de cette réaction est dit réduit, tandis que l'espèce chimique qui a cédé au moins un électron est dite oxydée[2]. Un oxydant est généralement proche de son état d'oxydation le plus élevé et se comporte par conséquent comme un accepteur d'électron.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un oxydant ou agent oxydant ou agent d'oxydation est un corps simple, un composé ou un ion qui reçoit au moins un électron d'une autre espèce chimique lors d'une réaction d'oxydoréduction. L'oxydant ayant accepté au moins un électron au cours de cette réaction est dit réduit, tandis que l'espèce chimique qui a cédé au moins un électron est dite oxydée. Un oxydant est généralement proche de son état d'oxydation le plus élevé et se comporte par conséquent comme un accepteur d'électron.
 Les réactions d'oxydation, qui font intervenir des oxydants, sont très répandues dans la vie quotidienne : on les retrouve dans les combustibles, la corrosion, les explosifs, la respiration (respiration cellulaire) ou encore la photosynthèse (complexe d'oxydation de l'eau).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un exemple bien connu d'oxydation est la formation de la rouille par oxydation du fer, dont l'équation globale s'écrit :
 4 Fe + 3 O2 → 2 Fe2O3.
